--- a/your-code/PivotTable vs Formula Exercise.xlsx
+++ b/your-code/PivotTable vs Formula Exercise.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 2 - Excel Pivot Tables and Macros/Lab/lab_2_Pivot-tables_vs_formulas/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\Ironhack\labs\lab-excel-pivot-tables-vs-formulas\your-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A3A7DBBF-F3AC-4897-BE43-8F94BEB89478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7683A57F-D9F9-4F18-9995-6F2FB9CE459C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F27698-1773-4143-AF32-9C285C71BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="3" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$E$39</definedName>
-    <definedName name="ARTÍCULOS" localSheetId="1">data!$A$1:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$E$39</definedName>
+    <definedName name="ARTÍCULOS" localSheetId="2">data!$A$1:$E$38</definedName>
     <definedName name="ARTÍCULOS">#REF!</definedName>
     <definedName name="data">data!$A$1:$E$39</definedName>
     <definedName name="miLista">data!$A$1:$E$4500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="110" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t>China</t>
   </si>
@@ -230,6 +234,51 @@
   </si>
   <si>
     <t>Lamp Base</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Sum of Price</t>
+  </si>
+  <si>
+    <t>Total Count of Price2</t>
+  </si>
+  <si>
+    <t>Count of Price2</t>
+  </si>
+  <si>
+    <t>2018 - SUM</t>
+  </si>
+  <si>
+    <t>2019 - SUM</t>
+  </si>
+  <si>
+    <t>2018 - COUNT</t>
+  </si>
+  <si>
+    <t>2019 - COUNT</t>
+  </si>
+  <si>
+    <t>Years (Date)</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
   </si>
 </sst>
 </file>
@@ -239,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€]_-;\-* #,##0.00[$€]_-;_-* &quot;-&quot;??[$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -260,8 +309,22 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,25 +367,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -327,12 +483,296 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€]_-;\-* #,##0.00[$€]_-;_-* &quot;-&quot;??[$€]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,6 +837,669 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bruno Pulheze" refreshedDate="45946.040422453705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{D022943C-998E-49EA-B350-209463859202}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E39" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Section" numFmtId="0">
+      <sharedItems count="5">
+        <s v="CERAMICS"/>
+        <s v="CLOTHING"/>
+        <s v="SPORTS"/>
+        <s v="HARDWARE"/>
+        <s v="TOYS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="37">
+        <s v="Pipes"/>
+        <s v="Decorative Plate"/>
+        <s v="Tea Set"/>
+        <s v="Ashtray"/>
+        <s v="Flower Pot"/>
+        <s v="China Pitcher"/>
+        <s v="Men's Card"/>
+        <s v="Women's Pants"/>
+        <s v="Men's Shirt"/>
+        <s v="Women's Blouse"/>
+        <s v="Leather Jacket"/>
+        <s v="Men's Coat"/>
+        <s v="Women's Coat"/>
+        <s v="Leather Belt"/>
+        <s v="Tennis Racket"/>
+        <s v="Tracksuit"/>
+        <s v="Electric Train"/>
+        <s v="Olympic Pistol"/>
+        <s v="Skateboard"/>
+        <s v="Basketball"/>
+        <s v="Soccer Ball"/>
+        <s v="Sweatshirt"/>
+        <s v="Mountain Bike"/>
+        <s v="Screwdriver"/>
+        <s v="Handsaw"/>
+        <s v="Wrench"/>
+        <s v="Pliers"/>
+        <s v="Hammer"/>
+        <s v="Large File"/>
+        <s v="Drill Bit Set"/>
+        <s v="Remote Control Car"/>
+        <s v="Walker"/>
+        <s v="Video Game Console"/>
+        <s v="Walking Doll"/>
+        <s v="Soldier Fort"/>
+        <s v="Sound Gun"/>
+        <s v="Lamp Base"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-05-12T00:00:00" maxDate="2019-01-30T00:00:00" count="37">
+        <d v="2019-01-27T00:00:00"/>
+        <d v="2018-12-24T00:00:00"/>
+        <d v="2019-01-15T00:00:00"/>
+        <d v="2018-05-12T00:00:00"/>
+        <d v="2019-01-05T00:00:00"/>
+        <d v="2018-11-23T00:00:00"/>
+        <d v="2018-10-23T00:00:00"/>
+        <d v="2018-09-10T00:00:00"/>
+        <d v="2019-01-07T00:00:00"/>
+        <d v="2018-12-20T00:00:00"/>
+        <d v="2018-09-09T00:00:00"/>
+        <d v="2019-01-14T00:00:00"/>
+        <d v="2019-01-29T00:00:00"/>
+        <d v="2019-01-03T00:00:00"/>
+        <d v="2018-09-14T00:00:00"/>
+        <d v="2018-08-16T00:00:00"/>
+        <d v="2018-07-03T00:00:00"/>
+        <d v="2019-01-04T00:00:00"/>
+        <d v="2019-01-21T00:00:00"/>
+        <d v="2019-01-16T00:00:00"/>
+        <d v="2018-12-08T00:00:00"/>
+        <d v="2018-12-12T00:00:00"/>
+        <d v="2018-11-07T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-28T00:00:00"/>
+        <d v="2019-01-26T00:00:00"/>
+        <d v="2018-10-17T00:00:00"/>
+        <d v="2019-01-18T00:00:00"/>
+        <d v="2018-11-19T00:00:00"/>
+        <d v="2018-11-06T00:00:00"/>
+        <d v="2018-12-07T00:00:00"/>
+        <d v="2018-12-14T00:00:00"/>
+        <d v="2019-01-19T00:00:00"/>
+        <d v="2018-10-14T00:00:00"/>
+        <d v="2018-10-09T00:00:00"/>
+        <d v="2018-08-05T00:00:00"/>
+        <d v="2018-06-06T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="5"/>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.6060726263026939" maxValue="1254.4805452381811" count="38">
+        <n v="140.35435673674468"/>
+        <n v="45.07590782878367"/>
+        <n v="36.06"/>
+        <n v="16.45571141802796"/>
+        <n v="24.202757443534914"/>
+        <n v="106.47530441263088"/>
+        <n v="237.14735614775282"/>
+        <n v="145.19250417703412"/>
+        <n v="55.94220667604246"/>
+        <n v="84.213816066255575"/>
+        <n v="435.5775125311024"/>
+        <n v="203.268303823639"/>
+        <n v="300.06130323464714"/>
+        <n v="3.6060726263026939"/>
+        <n v="77.891168728138183"/>
+        <n v="193.39367494861347"/>
+        <n v="1254.4805452381811"/>
+        <n v="38.945584364069092"/>
+        <n v="93.036673758609496"/>
+        <n v="62.727633334535362"/>
+        <n v="36.595627035928501"/>
+        <n v="365.98031084346042"/>
+        <n v="470.41818422223025"/>
+        <n v="5.5233012392869592"/>
+        <n v="25.170386931592802"/>
+        <n v="20.332239491303355"/>
+        <n v="5.613453054944527"/>
+        <n v="9.4959912492637599"/>
+        <n v="7.5487120310603055"/>
+        <n v="18.390970394143739"/>
+        <n v="12.579183344752563"/>
+        <n v="132.87175603716659"/>
+        <n v="86.113014316108334"/>
+        <n v="368.78703737093264"/>
+        <n v="87.549433245585561"/>
+        <n v="119.75166179846862"/>
+        <n v="47.708340845984637"/>
+        <n v="33.133797314677921"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Years (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="years" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;12.05.2018"/>
+          <s v="2018"/>
+          <s v="2019"/>
+          <s v="&gt;30.01.2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="China"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="China"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="China"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Japan"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Spain"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="China"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Italy"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="Morocco"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="Spain"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="China"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="Italy"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="Italy"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="Morocco"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="Spain"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="USA"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="USA"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="16"/>
+    <s v="Japan"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="17"/>
+    <s v="Sweden"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="18"/>
+    <s v="Morocco"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="19"/>
+    <s v="Japan"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="20"/>
+    <s v="Spain"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="21"/>
+    <s v="USA"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="22"/>
+    <s v="USA"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="23"/>
+    <s v="Spain"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="24"/>
+    <s v="France"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <x v="25"/>
+    <s v="Italy"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="26"/>
+    <s v="Spain"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="27"/>
+    <s v="France"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="28"/>
+    <s v="Spain"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <x v="29"/>
+    <s v="Taiwan"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="30"/>
+    <s v="Morocco"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="31"/>
+    <s v="Japan"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="32"/>
+    <x v="32"/>
+    <s v="USA"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="33"/>
+    <s v="Spain"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="34"/>
+    <x v="34"/>
+    <s v="Japan"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="35"/>
+    <s v="Spain"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="36"/>
+    <x v="36"/>
+    <s v="Turkey"/>
+    <x v="37"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AC9890E-B7A1-45FD-BBE1-8E6E8B986E3C}" name="PivotTable15" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:G11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="37">
+        <item x="3"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="25"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="37">
+        <item x="3"/>
+        <item x="36"/>
+        <item x="16"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="38">
+        <item x="13"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="37"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="36"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="16"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Count of Price2" fld="4" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E07E6AA-FBBC-4852-9613-E937D4352D84}" name="SalesData" displayName="SalesData" ref="A1:F39" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8F54D5D1-7168-48B5-813E-8F02448EF419}" name="Section" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{73A15324-C89E-4CA9-A4BA-2FEFBDDAD726}" name="Item" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3E08E366-17E5-47F7-A133-6D5FE8F339EF}" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C16CCC93-65F8-4EC4-A72F-1AB9F627938A}" name="Country" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C3D08472-BFAA-44F0-92EF-7233AA0A2D6F}" name="Price" dataDxfId="4" dataCellStyle="Euro"/>
+    <tableColumn id="9" xr3:uid="{1ADB2134-64C7-4EE7-B6E8-4BF1B93745BD}" name="Year" dataDxfId="0" dataCellStyle="Euro">
+      <calculatedColumnFormula>YEAR(C2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,39 +1791,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68408F57-2609-4CF7-9328-02FE8121296B}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -731,699 +1834,1247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A37C1B-B739-4DA6-A2D8-40CE71945A9E}">
+  <dimension ref="A3:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>168.00692365944252</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>200.6171141802796</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>368.62403783972212</v>
+      </c>
+      <c r="G6" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
+        <v>902.13118892214493</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>562.87788636063124</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1465.0090752827762</v>
+      </c>
+      <c r="G7" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>71.15983315903982</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>33.494404577308188</v>
+      </c>
+      <c r="E8" s="20">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>104.65423773634801</v>
+      </c>
+      <c r="G8" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="C9" s="20">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>194.70989145721396</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2593.469402473766</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <v>507.12800355799163</v>
+      </c>
+      <c r="C10" s="20">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>875.91504092892433</v>
+      </c>
+      <c r="G10" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4047.185460315171</v>
+      </c>
+      <c r="C11" s="20">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1360.4863339463657</v>
+      </c>
+      <c r="E11" s="20">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5407.6717942615369</v>
+      </c>
+      <c r="G11" s="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "CERAMICS", SalesData[Year], 2018)</f>
+        <v>168.00692365944252</v>
+      </c>
+      <c r="C14" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "CERAMICS", SalesData[Year], 2019)</f>
+        <v>200.6171141802796</v>
+      </c>
+      <c r="D14" s="22">
+        <f>SUM(B14+C14)</f>
+        <v>368.62403783972212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "CLOTHING", SalesData[Year], 2018)</f>
+        <v>902.13118892214493</v>
+      </c>
+      <c r="C15" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "CLOTHING", SalesData[Year], 2019)</f>
+        <v>562.87788636063124</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" ref="D15:D18" si="0">SUM(B15+C15)</f>
+        <v>1465.0090752827762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "HARDWARE", SalesData[Year], 2018)</f>
+        <v>71.15983315903982</v>
+      </c>
+      <c r="C16" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "HARDWARE", SalesData[Year], 2019)</f>
+        <v>33.494404577308188</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>104.65423773634801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "SPORTS", SalesData[Year], 2018)</f>
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="C17" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "SPORTS", SalesData[Year], 2019)</f>
+        <v>194.70989145721396</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="0"/>
+        <v>2593.469402473766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "TOYS", SalesData[Year], 2018)</f>
+        <v>507.12800355799163</v>
+      </c>
+      <c r="C18" s="22">
+        <f>SUMIFS(SalesData[Price], SalesData[Section], "TOYS", SalesData[Year], 2019)</f>
+        <v>368.78703737093264</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="0"/>
+        <v>875.91504092892433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="22">
+        <f>COUNTIFS(SalesData[Section], "CERAMICS", SalesData[Year], 2018)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="22">
+        <f>COUNTIFS(SalesData[Section], "CERAMICS", SalesData[Year], 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="22">
+        <f>SUM(B21+C21)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22">
+        <f>COUNTIFS(SalesData[Section], "CLOTHING", SalesData[Year], 2018)</f>
+        <v>4</v>
+      </c>
+      <c r="C22" s="22">
+        <f>COUNTIFS(SalesData[Section], "CLOTHING", SalesData[Year], 2019)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" ref="D22:D25" si="1">SUM(B22+C22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="22">
+        <f>COUNTIFS(SalesData[Section], "HARDWARE", SalesData[Year], 2018)</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="22">
+        <f>COUNTIFS(SalesData[Section], "HARDWARE", SalesData[Year], 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22">
+        <f>COUNTIFS(SalesData[Section], "SPORTS", SalesData[Year], 2018)</f>
+        <v>6</v>
+      </c>
+      <c r="C24" s="22">
+        <f>COUNTIFS(SalesData[Section], "SPORTS", SalesData[Year], 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="28">
+        <f>COUNTIFS(SalesData[Section], "TOYS", SalesData[Year], 2018)</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="22">
+        <f>COUNTIFS(SalesData[Section], "TOYS", SalesData[Year], 2019)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3515625" customWidth="1"/>
+    <col min="2" max="2" width="26.87890625" customWidth="1"/>
+    <col min="3" max="3" width="14.3515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="34" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="60" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.52734375" customWidth="1"/>
+    <col min="7" max="7" width="8.3515625" customWidth="1"/>
+    <col min="8" max="8" width="13.76171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.52734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.76171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.64453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="35" width="13.52734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="13.52734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="61" width="13.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>43492</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="11">
         <v>140.35435673674468</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="21">
+        <f>YEAR(C2)</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>43458</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>45.07590782878367</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F39" si="0">YEAR(C3)</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>43480</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="11">
         <v>36.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>43232</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>16.45571141802796</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>43470</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>24.202757443534914</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>43427</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>106.47530441263088</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>43396</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <v>237.14735614775282</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>43353</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>145.19250417703412</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>43472</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="11">
         <v>55.94220667604246</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>43454</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <v>84.213816066255575</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>43352</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="11">
         <v>435.5775125311024</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>43479</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>203.268303823639</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>43494</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="11">
         <v>300.06130323464714</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>43468</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="11">
         <v>3.6060726263026939</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>43357</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="11">
         <v>77.891168728138183</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>43328</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="11">
         <v>193.39367494861347</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>43284</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="11">
         <v>1254.4805452381811</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>43469</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="11">
         <v>38.945584364069092</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>43486</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="11">
         <v>93.036673758609496</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>43481</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="11">
         <v>62.727633334535362</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>43442</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="11">
         <v>36.595627035928501</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>43446</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="11">
         <v>365.98031084346042</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>43411</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="11">
         <v>470.41818422223025</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>43378</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="11">
         <v>5.5233012392869592</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>43401</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="11">
         <v>25.170386931592802</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>43480</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="11">
         <v>20.332239491303355</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>43491</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="11">
         <v>5.613453054944527</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>43390</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="11">
         <v>9.4959912492637599</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="F29" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>43483</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="11">
         <v>7.5487120310603055</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="F30" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>43423</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="11">
         <v>18.390970394143739</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="F31" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>43410</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="11">
         <v>12.579183344752563</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>43441</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="11">
         <v>132.87175603716659</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="F33" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>43448</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="11">
         <v>86.113014316108334</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>43484</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="11">
         <v>368.78703737093264</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="F35" s="21">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>43387</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="11">
         <v>87.549433245585561</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="F36" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>43382</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="11">
         <v>119.75166179846862</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="F37" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>43317</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="11">
         <v>47.708340845984637</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="F38" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="14">
         <v>43257</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="15">
         <v>33.133797314677921</v>
       </c>
+      <c r="F39" s="21">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -1431,5 +3082,8 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>